--- a/ThiSinh.xlsx
+++ b/ThiSinh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTT2021\[DTT2021][Source-code]\ServerDTT(New)\ServerDTT(New)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A65DDCF-7CEF-41AC-8B98-DBCEC5312E04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17980B98-4CF0-43CC-A825-D6D126402D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thí sinh" sheetId="1" r:id="rId1"/>
@@ -45,22 +45,22 @@
     <t>S5 - 04</t>
   </si>
   <si>
-    <t>Hổng Tĩnh</t>
-  </si>
-  <si>
-    <t>Trưởng Hon</t>
-  </si>
-  <si>
     <t>Quốc Bửu</t>
   </si>
   <si>
-    <t>Hữu Thắng</t>
-  </si>
-  <si>
     <t>Note: Đặt ID thí sinh theo cú pháp: [Mùa thứ mấy] + [Số thứ tự]</t>
   </si>
   <si>
     <t>Ví dụ: S5 - 01</t>
+  </si>
+  <si>
+    <t>Thanh Lam</t>
+  </si>
+  <si>
+    <t>Kim Liên</t>
+  </si>
+  <si>
+    <t>Quốc Bảo</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -452,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
